--- a/data/trans_orig/P37C1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P37C1_2023-Edad-trans_orig.xlsx
@@ -744,16 +744,16 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11749</v>
+        <v>11782</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.008060066488080546</v>
+        <v>0.008060066488080548</v>
       </c>
       <c r="H4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02927219100768099</v>
+        <v>0.0293537023948306</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8577</v>
+        <v>7610</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.004551795791480781</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02365860192562281</v>
+        <v>0.02099334106267346</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -783,19 +783,19 @@
         <v>4885</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1462</v>
+        <v>1488</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>13321</v>
+        <v>13908</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.006395169384883254</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001914027698038007</v>
+        <v>0.001947676617477139</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01743818311521872</v>
+        <v>0.01820658554469359</v>
       </c>
     </row>
     <row r="5">
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>10038</v>
+        <v>7064</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.004642593047160892</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02768883250348203</v>
+        <v>0.019487273686072</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1</v>
@@ -849,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>6917</v>
+        <v>9509</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.002203205050007537</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.009055292624052717</v>
+        <v>0.01244823941840258</v>
       </c>
     </row>
     <row r="6">
@@ -875,19 +875,19 @@
         <v>25626</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13493</v>
+        <v>13511</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>48874</v>
+        <v>45520</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.06384561596549058</v>
+        <v>0.06384561596549061</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03361658093140478</v>
+        <v>0.03366191132232513</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1217676460393758</v>
+        <v>0.1134118561286062</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>9</v>
@@ -896,19 +896,19 @@
         <v>16931</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>7691</v>
+        <v>8300</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>31439</v>
+        <v>31108</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.04670460578129409</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02121537524721052</v>
+        <v>0.02289474404776994</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.08672460669791361</v>
+        <v>0.08581160965235167</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>20</v>
@@ -917,19 +917,19 @@
         <v>42557</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>27203</v>
+        <v>25692</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>65918</v>
+        <v>65502</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.05571111875317364</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.03561122591945884</v>
+        <v>0.03363355795798371</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.08629253255581482</v>
+        <v>0.08574897202504335</v>
       </c>
     </row>
     <row r="7">
@@ -946,19 +946,19 @@
         <v>100121</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>74746</v>
+        <v>75798</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>128946</v>
+        <v>129031</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.2494456459299907</v>
+        <v>0.2494456459299908</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1862249800947186</v>
+        <v>0.1888471661552347</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.321261696685945</v>
+        <v>0.3214737950691261</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>39</v>
@@ -967,19 +967,19 @@
         <v>62321</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>45730</v>
+        <v>45533</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>83142</v>
+        <v>83540</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1719147785523747</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1261478223640811</v>
+        <v>0.1256035785149495</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2293506979885255</v>
+        <v>0.2304469169557647</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>83</v>
@@ -988,19 +988,19 @@
         <v>162442</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>131251</v>
+        <v>129213</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>200477</v>
+        <v>194685</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2126523287465498</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1718205126151295</v>
+        <v>0.1691525705967849</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2624441133479201</v>
+        <v>0.2548617373935129</v>
       </c>
     </row>
     <row r="8">
@@ -1017,19 +1017,19 @@
         <v>272391</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>243403</v>
+        <v>243610</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>302590</v>
+        <v>300005</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.6786486716164382</v>
+        <v>0.6786486716164384</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6064260811247221</v>
+        <v>0.6069408626076777</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7538881353030371</v>
+        <v>0.7474469654604164</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>157</v>
@@ -1038,19 +1038,19 @@
         <v>279927</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>256114</v>
+        <v>258650</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>298937</v>
+        <v>300313</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7721862268276893</v>
+        <v>0.7721862268276896</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.706498444465062</v>
+        <v>0.7134929303597799</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8246274642244691</v>
+        <v>0.8284234430593181</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>270</v>
@@ -1059,19 +1059,19 @@
         <v>552319</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>514607</v>
+        <v>513733</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>587478</v>
+        <v>586089</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7230381780653857</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6736696843459087</v>
+        <v>0.6725251343406051</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7690655205902901</v>
+        <v>0.7672463821439846</v>
       </c>
     </row>
     <row r="9">
@@ -1166,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6601</v>
+        <v>6734</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.002487338648582042</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01387806292345326</v>
+        <v>0.01415752221172754</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8992</v>
+        <v>8994</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.003586852232960404</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01797580661926115</v>
+        <v>0.01797877713668279</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2</v>
@@ -1208,16 +1208,16 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>10692</v>
+        <v>10919</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.00305093952355435</v>
+        <v>0.003050939523554351</v>
       </c>
       <c r="V10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01095665943152778</v>
+        <v>0.01118933832840097</v>
       </c>
     </row>
     <row r="11">
@@ -1234,19 +1234,19 @@
         <v>6267</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1884</v>
+        <v>1261</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>17826</v>
+        <v>16560</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01317488508312203</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.003960773058557228</v>
+        <v>0.002652099386831945</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03747726444377759</v>
+        <v>0.03481456343639833</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>4</v>
@@ -1255,19 +1255,19 @@
         <v>3967</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>9485</v>
+        <v>9625</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.007929478091322755</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.002107410963140211</v>
+        <v>0.002100778464699648</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01896121909387726</v>
+        <v>0.01924063855260215</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>8</v>
@@ -1276,19 +1276,19 @@
         <v>10233</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>4715</v>
+        <v>5029</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>22055</v>
+        <v>21485</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.01048613615617233</v>
+        <v>0.01048613615617234</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.004831195778529364</v>
+        <v>0.005153456569199273</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02260047672972152</v>
+        <v>0.02201568228513326</v>
       </c>
     </row>
     <row r="12">
@@ -1305,19 +1305,19 @@
         <v>24159</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>14812</v>
+        <v>14940</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>38945</v>
+        <v>37507</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.05079180162893213</v>
+        <v>0.05079180162893214</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03113992568692037</v>
+        <v>0.03140885734415151</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0818763983015844</v>
+        <v>0.07885361372370667</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>14</v>
@@ -1326,19 +1326,19 @@
         <v>13660</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>7953</v>
+        <v>7570</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>22423</v>
+        <v>22304</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02730758994730175</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01589786147691432</v>
+        <v>0.01513404480790622</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04482479369593379</v>
+        <v>0.04458802666484058</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>31</v>
@@ -1347,19 +1347,19 @@
         <v>37819</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>26190</v>
+        <v>26507</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>53295</v>
+        <v>53713</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03875400378827613</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02683677916046465</v>
+        <v>0.02716204945410772</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05461177437701987</v>
+        <v>0.0550408787599923</v>
       </c>
     </row>
     <row r="13">
@@ -1376,19 +1376,19 @@
         <v>113480</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>91967</v>
+        <v>93787</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>138097</v>
+        <v>140072</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2385763786897978</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1933494131226965</v>
+        <v>0.1971753555274098</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2903317866554556</v>
+        <v>0.2944821078444621</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>86</v>
@@ -1397,19 +1397,19 @@
         <v>89109</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>72034</v>
+        <v>69869</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>106016</v>
+        <v>106397</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1781368015244043</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1440017233153082</v>
+        <v>0.1396733745248934</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2119345531130733</v>
+        <v>0.2126973601187102</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>163</v>
@@ -1418,19 +1418,19 @@
         <v>202589</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>174503</v>
+        <v>173841</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>233448</v>
+        <v>233619</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2075955894959736</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1788159526252786</v>
+        <v>0.1781372853837039</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2392171915898299</v>
+        <v>0.2393928366155467</v>
       </c>
     </row>
     <row r="14">
@@ -1447,19 +1447,19 @@
         <v>330565</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>302764</v>
+        <v>302854</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>353547</v>
+        <v>353705</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6949695959495659</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6365211519765986</v>
+        <v>0.63671053651262</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7432858760786608</v>
+        <v>0.7436180678512794</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>354</v>
@@ -1468,19 +1468,19 @@
         <v>391699</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>372602</v>
+        <v>372481</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>409732</v>
+        <v>411749</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7830392782040108</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7448621342307</v>
+        <v>0.7446212153624477</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8190890457326697</v>
+        <v>0.8231214515671835</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>556</v>
@@ -1489,19 +1489,19 @@
         <v>722264</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>690858</v>
+        <v>690791</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>753132</v>
+        <v>754137</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7401133310360236</v>
+        <v>0.7401133310360237</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7079307194667626</v>
+        <v>0.7078625108061254</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7717443538003969</v>
+        <v>0.7727741030441042</v>
       </c>
     </row>
     <row r="15">
@@ -1593,19 +1593,19 @@
         <v>3763</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10625</v>
+        <v>10357</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.006119892218350562</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001350214869056143</v>
+        <v>0.001345525071805647</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01727832562860418</v>
+        <v>0.01684323735797094</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -1617,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>3837</v>
+        <v>3814</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.001219934820488148</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.006176385914993497</v>
+        <v>0.006139395231487281</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -1635,19 +1635,19 @@
         <v>4521</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1418</v>
+        <v>1421</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>11593</v>
+        <v>12901</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.003657258829523553</v>
+        <v>0.003657258829523552</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001146672847836974</v>
+        <v>0.001149525980569267</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.009378024369926326</v>
+        <v>0.01043539098369376</v>
       </c>
     </row>
     <row r="17">
@@ -1664,19 +1664,19 @@
         <v>5593</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1935</v>
+        <v>2569</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>11120</v>
+        <v>12323</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.009095417043667625</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.003147004242911592</v>
+        <v>0.004177837563400508</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01808311252833742</v>
+        <v>0.02004042879557724</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>5459</v>
+        <v>5686</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.002588434705546635</v>
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.008786752250911493</v>
+        <v>0.009151439186110225</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8</v>
@@ -1706,19 +1706,19 @@
         <v>7201</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3243</v>
+        <v>3317</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>14437</v>
+        <v>13928</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.005825120862448799</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.002623292808392783</v>
+        <v>0.00268345440487134</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01167814763884686</v>
+        <v>0.01126611422797162</v>
       </c>
     </row>
     <row r="18">
@@ -1735,19 +1735,19 @@
         <v>36464</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>24148</v>
+        <v>25002</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>50562</v>
+        <v>51756</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.05929879241988215</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03927003810702225</v>
+        <v>0.04065785350963325</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.0822251357143939</v>
+        <v>0.0841667303098159</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>17</v>
@@ -1756,19 +1756,19 @@
         <v>13020</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>7759</v>
+        <v>7736</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>21032</v>
+        <v>19931</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02095562892288409</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.0124880425681953</v>
+        <v>0.01245059529930678</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.03385120035463764</v>
+        <v>0.03207959335790782</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>47</v>
@@ -1777,19 +1777,19 @@
         <v>49484</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>37143</v>
+        <v>37693</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>65052</v>
+        <v>65708</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.04002818514844893</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03004553917108033</v>
+        <v>0.03049053254174608</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.0526214378946358</v>
+        <v>0.05315130395756099</v>
       </c>
     </row>
     <row r="19">
@@ -1806,19 +1806,19 @@
         <v>132784</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>113146</v>
+        <v>113100</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>155567</v>
+        <v>156110</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2159349210413775</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1840000268147571</v>
+        <v>0.183924931493925</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2529861286268742</v>
+        <v>0.2538681052125405</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>171</v>
@@ -1827,19 +1827,19 @@
         <v>116308</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>100435</v>
+        <v>99421</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>133738</v>
+        <v>132353</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1871984755611646</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1616504016352399</v>
+        <v>0.160018073618217</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2152510335557504</v>
+        <v>0.2130232758912771</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>293</v>
@@ -1848,19 +1848,19 @@
         <v>249092</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>223177</v>
+        <v>224095</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>279395</v>
+        <v>278643</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2014924832057646</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1805294782867778</v>
+        <v>0.1812725407715066</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.226004655199206</v>
+        <v>0.2253961227476405</v>
       </c>
     </row>
     <row r="20">
@@ -1877,19 +1877,19 @@
         <v>436321</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>413403</v>
+        <v>410132</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>461145</v>
+        <v>458125</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.7095509772767223</v>
+        <v>0.7095509772767222</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6722814362204841</v>
+        <v>0.6669625938676681</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7499210987948108</v>
+        <v>0.7450088392228015</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>654</v>
@@ -1898,19 +1898,19 @@
         <v>489616</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>470835</v>
+        <v>472183</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>505956</v>
+        <v>507368</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7880375259899166</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7578105575513652</v>
+        <v>0.7599791768576107</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8143366576194763</v>
+        <v>0.8166094380425056</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1035</v>
@@ -1919,19 +1919,19 @@
         <v>925936</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>895019</v>
+        <v>894362</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>954745</v>
+        <v>954393</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.748996951953814</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.723988064383062</v>
+        <v>0.7234560604978143</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7723006943446864</v>
+        <v>0.7720162113161946</v>
       </c>
     </row>
     <row r="21">
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>6601</v>
+        <v>5046</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.002365263797935895</v>
@@ -2035,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.009504376045901909</v>
+        <v>0.007265651775641436</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>5</v>
@@ -2044,19 +2044,19 @@
         <v>3152</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1000</v>
+        <v>1182</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>6870</v>
+        <v>7005</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.004299936875722558</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.001364647381405783</v>
+        <v>0.001612608877349011</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.009371139896518796</v>
+        <v>0.009556015246093201</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>7</v>
@@ -2065,19 +2065,19 @@
         <v>4795</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2011</v>
+        <v>1994</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>9794</v>
+        <v>9708</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.003358708021513178</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.001408383049475386</v>
+        <v>0.001396626087702067</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.00686025417582177</v>
+        <v>0.006799962907415355</v>
       </c>
     </row>
     <row r="23">
@@ -2094,19 +2094,19 @@
         <v>7950</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3694</v>
+        <v>3460</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>14791</v>
+        <v>15165</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01144642653557847</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.005318258998629373</v>
+        <v>0.004981245494887558</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02129568612197358</v>
+        <v>0.02183434939766685</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3</v>
@@ -2115,19 +2115,19 @@
         <v>1825</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>439</v>
+        <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>5212</v>
+        <v>5218</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.002489702454200806</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.0005992235004556652</v>
+        <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.007109933224764745</v>
+        <v>0.007117763065000008</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>11</v>
@@ -2136,19 +2136,19 @@
         <v>9775</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4610</v>
+        <v>4957</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>16947</v>
+        <v>16994</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.006847196876064197</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.003229127117189047</v>
+        <v>0.003472344685167464</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01187067372026026</v>
+        <v>0.0119035022542597</v>
       </c>
     </row>
     <row r="24">
@@ -2165,19 +2165,19 @@
         <v>22621</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>14330</v>
+        <v>14086</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>34591</v>
+        <v>35344</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.03256859496380877</v>
+        <v>0.03256859496380878</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0206323242593947</v>
+        <v>0.02028011516461127</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.04980319105149261</v>
+        <v>0.05088713918181739</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>33</v>
@@ -2186,19 +2186,19 @@
         <v>22929</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>16175</v>
+        <v>15862</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>31585</v>
+        <v>31620</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03127806875429241</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02206487814045471</v>
+        <v>0.02163748049797482</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04308547770771284</v>
+        <v>0.04313321643748139</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>54</v>
@@ -2207,19 +2207,19 @@
         <v>45550</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>33561</v>
+        <v>34251</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>58605</v>
+        <v>59669</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03190591669380057</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0235080374794071</v>
+        <v>0.02399181454029257</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04105016010808512</v>
+        <v>0.04179612084690192</v>
       </c>
     </row>
     <row r="25">
@@ -2236,19 +2236,19 @@
         <v>158357</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>136440</v>
+        <v>137082</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>183142</v>
+        <v>182667</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2279983979383839</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.196442856230843</v>
+        <v>0.1973678779383791</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2636845488065403</v>
+        <v>0.2629996271701905</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>255</v>
@@ -2257,19 +2257,19 @@
         <v>156277</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>139702</v>
+        <v>140790</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>174584</v>
+        <v>174390</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2131784539527149</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1905685940883134</v>
+        <v>0.1920519906014617</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2381505997364424</v>
+        <v>0.2378857525643442</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>411</v>
@@ -2278,19 +2278,19 @@
         <v>314634</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>285164</v>
+        <v>284853</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>341248</v>
+        <v>342508</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2203884363819099</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1997459899177554</v>
+        <v>0.1995286580858278</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.239031124259802</v>
+        <v>0.2399134577269463</v>
       </c>
     </row>
     <row r="26">
@@ -2307,19 +2307,19 @@
         <v>503981</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>478622</v>
+        <v>478956</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>527607</v>
+        <v>527889</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7256213167642931</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6891104677419702</v>
+        <v>0.689590300020596</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7596375959600766</v>
+        <v>0.7600438763349885</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>839</v>
@@ -2328,19 +2328,19 @@
         <v>548897</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>527738</v>
+        <v>530621</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>565095</v>
+        <v>565274</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7487538379630693</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7198907597276916</v>
+        <v>0.7238226767465801</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7708498659118086</v>
+        <v>0.7710928944555645</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1313</v>
@@ -2349,19 +2349,19 @@
         <v>1052878</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1023764</v>
+        <v>1022305</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1083748</v>
+        <v>1084894</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7374997420267122</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7171065297328757</v>
+        <v>0.7160847404125362</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.759122729446881</v>
+        <v>0.7599256397588287</v>
       </c>
     </row>
     <row r="27">
@@ -2456,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>4901</v>
+        <v>6031</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.001732067534257774</v>
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.008147213782622967</v>
+        <v>0.01002567238703067</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2</v>
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>4863</v>
+        <v>4427</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.00229899934133761</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.008012639924044402</v>
+        <v>0.007295016951462955</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3</v>
@@ -2495,19 +2495,19 @@
         <v>2437</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>7997</v>
+        <v>6954</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.002016791308698911</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0005705564126172519</v>
+        <v>0.0005664390605666831</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.006617535880964246</v>
+        <v>0.00575475122268223</v>
       </c>
     </row>
     <row r="29">
@@ -2524,19 +2524,19 @@
         <v>5571</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2364</v>
+        <v>2384</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>11477</v>
+        <v>11329</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.009261082703115193</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.003929241827192766</v>
+        <v>0.003962588399276858</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01907944213254665</v>
+        <v>0.01883407834828209</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>7</v>
@@ -2545,19 +2545,19 @@
         <v>4541</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1980</v>
+        <v>1813</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>9091</v>
+        <v>8435</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.007481837476383405</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.003261719862719127</v>
+        <v>0.002987016489896652</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01497952295736391</v>
+        <v>0.01389887447193634</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>14</v>
@@ -2566,19 +2566,19 @@
         <v>10112</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5777</v>
+        <v>5649</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>17305</v>
+        <v>16196</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.008367512417791422</v>
+        <v>0.00836751241779142</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.004780209667592897</v>
+        <v>0.004674459582439634</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01432044783522728</v>
+        <v>0.01340207167336356</v>
       </c>
     </row>
     <row r="30">
@@ -2595,19 +2595,19 @@
         <v>34195</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>24608</v>
+        <v>24307</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>47537</v>
+        <v>48309</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.05684516432509534</v>
+        <v>0.05684516432509535</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.04090764983714777</v>
+        <v>0.04040747320634321</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.07902478593493507</v>
+        <v>0.0803093881830991</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>23</v>
@@ -2616,19 +2616,19 @@
         <v>14779</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>9669</v>
+        <v>9959</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>21964</v>
+        <v>21249</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.02435147610304999</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01593151292097601</v>
+        <v>0.01640885522970937</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.03619107461522039</v>
+        <v>0.03501270717176591</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>58</v>
@@ -2637,19 +2637,19 @@
         <v>48974</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>36183</v>
+        <v>37069</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>62021</v>
+        <v>61720</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.04052622536178643</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.0299417671192534</v>
+        <v>0.03067534560741513</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.05132328742092531</v>
+        <v>0.05107404511333223</v>
       </c>
     </row>
     <row r="31">
@@ -2666,19 +2666,19 @@
         <v>127939</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>110274</v>
+        <v>109740</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>148138</v>
+        <v>148309</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2126858721054898</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1833194346814252</v>
+        <v>0.18243177435007</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.246264785999268</v>
+        <v>0.2465476939489832</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>232</v>
@@ -2687,19 +2687,19 @@
         <v>132018</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>116740</v>
+        <v>116851</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>146897</v>
+        <v>147635</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2175272644157597</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1923530167240265</v>
+        <v>0.1925363448127201</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2420435289552806</v>
+        <v>0.2432595498273839</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>375</v>
@@ -2708,19 +2708,19 @@
         <v>259957</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>237036</v>
+        <v>234700</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>286556</v>
+        <v>287263</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2151173100225658</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.196150024883003</v>
+        <v>0.1942163785746668</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2371282378684483</v>
+        <v>0.2377134828230916</v>
       </c>
     </row>
     <row r="32">
@@ -2737,19 +2737,19 @@
         <v>432794</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>410930</v>
+        <v>408909</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>453062</v>
+        <v>452143</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.7194758133320418</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6831281067598178</v>
+        <v>0.6797683896188595</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7531688236768592</v>
+        <v>0.7516404288954891</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>735</v>
@@ -2758,19 +2758,19 @@
         <v>454170</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>437670</v>
+        <v>437907</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>471072</v>
+        <v>470818</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.7483404226634692</v>
+        <v>0.7483404226634691</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.721152737714333</v>
+        <v>0.7215434433639561</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7761907469253644</v>
+        <v>0.7757720493783914</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1205</v>
@@ -2779,19 +2779,19 @@
         <v>886964</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>857341</v>
+        <v>858258</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>913391</v>
+        <v>915104</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.7339721608891573</v>
+        <v>0.7339721608891574</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.7094581999924054</v>
+        <v>0.7102172739613486</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7558408382957488</v>
+        <v>0.7572582421930404</v>
       </c>
     </row>
     <row r="33">
@@ -2886,16 +2886,16 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>3771</v>
+        <v>3259</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.001620910647184007</v>
+        <v>0.001620910647184006</v>
       </c>
       <c r="H34" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.009336025505371649</v>
+        <v>0.008067692582006588</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>4</v>
@@ -2904,19 +2904,19 @@
         <v>2110</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>5230</v>
+        <v>5010</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.00484435722685264</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.001301026816550901</v>
+        <v>0.001297359678485375</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.0120097417183043</v>
+        <v>0.01150516447763469</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>5</v>
@@ -2925,19 +2925,19 @@
         <v>2764</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>6322</v>
+        <v>6205</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.003293243451344065</v>
+        <v>0.003293243451344064</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.001204073264601291</v>
+        <v>0.001201869764367484</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.007531764715801283</v>
+        <v>0.00739219452113403</v>
       </c>
     </row>
     <row r="35">
@@ -2954,19 +2954,19 @@
         <v>3736</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>8364</v>
+        <v>8332</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.009248649550940222</v>
+        <v>0.00924864955094022</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.003603989401328196</v>
+        <v>0.003594205425432563</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.02070680008212197</v>
+        <v>0.02062789736493573</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>3</v>
@@ -2978,16 +2978,16 @@
         <v>608</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>5509</v>
+        <v>4933</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.004251034058705356</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.001395090467510846</v>
+        <v>0.001395559465045593</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.01265072421469525</v>
+        <v>0.01132713169179433</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>8</v>
@@ -2996,19 +2996,19 @@
         <v>5587</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>2556</v>
+        <v>2570</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>10327</v>
+        <v>10623</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.006655873116251473</v>
+        <v>0.006655873116251474</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.003045503637352125</v>
+        <v>0.003062072005903112</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.01230241684090781</v>
+        <v>0.0126551795900293</v>
       </c>
     </row>
     <row r="36">
@@ -3025,19 +3025,19 @@
         <v>14953</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>9445</v>
+        <v>9498</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>22261</v>
+        <v>22367</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.03701788434354278</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.02338146918697678</v>
+        <v>0.02351368716945334</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.05510962070132741</v>
+        <v>0.0553735150316256</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>28</v>
@@ -3046,19 +3046,19 @@
         <v>15017</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>10253</v>
+        <v>10380</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>21722</v>
+        <v>21729</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.03448141511335839</v>
+        <v>0.03448141511335837</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.02354244175736241</v>
+        <v>0.02383525207954231</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.04987754199772842</v>
+        <v>0.04989346607048036</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>49</v>
@@ -3067,19 +3067,19 @@
         <v>29969</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>22480</v>
+        <v>22131</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>40074</v>
+        <v>38846</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.03570195724639944</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.02677963203174413</v>
+        <v>0.0263639162429718</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.04773927120132506</v>
+        <v>0.04627674507256382</v>
       </c>
     </row>
     <row r="37">
@@ -3096,19 +3096,19 @@
         <v>84957</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>71112</v>
+        <v>71394</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>99062</v>
+        <v>99948</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2103242454917827</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1760491963605453</v>
+        <v>0.1767474924474161</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2452443529108611</v>
+        <v>0.247437512613552</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>180</v>
@@ -3117,19 +3117,19 @@
         <v>93927</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>81423</v>
+        <v>81091</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>105836</v>
+        <v>106235</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.2156770615446576</v>
+        <v>0.2156770615446577</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1869645583489598</v>
+        <v>0.1862024723264571</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2430221344994193</v>
+        <v>0.2439379208163891</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>295</v>
@@ -3138,19 +3138,19 @@
         <v>178884</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>159659</v>
+        <v>160071</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>197007</v>
+        <v>199004</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2131013009380615</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.190199551468874</v>
+        <v>0.1906895286036759</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2346910877284705</v>
+        <v>0.23707064766274</v>
       </c>
     </row>
     <row r="38">
@@ -3167,19 +3167,19 @@
         <v>299632</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>285916</v>
+        <v>284395</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>313237</v>
+        <v>314262</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.7417883099665503</v>
+        <v>0.7417883099665502</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.7078328181925551</v>
+        <v>0.7040654517434205</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.775469637193945</v>
+        <v>0.7780068283902415</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>605</v>
@@ -3188,19 +3188,19 @@
         <v>322594</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>309139</v>
+        <v>309477</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>335354</v>
+        <v>336306</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.740746132056426</v>
+        <v>0.7407461320564259</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.7098500241326879</v>
+        <v>0.7106256982548157</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.7700459850011502</v>
+        <v>0.7722311102004327</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1029</v>
@@ -3209,19 +3209,19 @@
         <v>622225</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>602281</v>
+        <v>599791</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>643168</v>
+        <v>641610</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.7412476252479436</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.7174879969894936</v>
+        <v>0.7145215554808428</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.766196588748007</v>
+        <v>0.7643398001485303</v>
       </c>
     </row>
     <row r="39">
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>4420</v>
+        <v>4192</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.002672305539078403</v>
@@ -3338,7 +3338,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.009581750584478967</v>
+        <v>0.009087577580159557</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>2</v>
@@ -3350,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>4577</v>
+        <v>4525</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.001605167627276741</v>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.005959919175586434</v>
+        <v>0.005891844939916169</v>
       </c>
     </row>
     <row r="41">
@@ -3379,7 +3379,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>5356</v>
+        <v>4716</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.004738470174613111</v>
@@ -3388,7 +3388,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.01746288798696436</v>
+        <v>0.01537686488841189</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>4</v>
@@ -3397,19 +3397,19 @@
         <v>1839</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>487</v>
+        <v>648</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>4749</v>
+        <v>5404</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.003985867620885038</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.001056561966596753</v>
+        <v>0.001403894086950192</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.01029399595541817</v>
+        <v>0.01171364176341975</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>6</v>
@@ -3418,19 +3418,19 @@
         <v>3292</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>7437</v>
+        <v>7639</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.004286406128124353</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.001698151075362566</v>
+        <v>0.001696961647174657</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.009682976634273076</v>
+        <v>0.009946994558146662</v>
       </c>
     </row>
     <row r="42">
@@ -3447,19 +3447,19 @@
         <v>8323</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>4475</v>
+        <v>4325</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>14251</v>
+        <v>14917</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.02713878763634949</v>
+        <v>0.0271387876363495</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.01459174989460693</v>
+        <v>0.01410224754129796</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.04646634820838803</v>
+        <v>0.04863770804122235</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>20</v>
@@ -3468,19 +3468,19 @@
         <v>10266</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>6429</v>
+        <v>6355</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>15041</v>
+        <v>15574</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.02225304212822234</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.01393580651078928</v>
+        <v>0.01377646531183435</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.03260382206632804</v>
+        <v>0.03376049099925107</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>31</v>
@@ -3489,19 +3489,19 @@
         <v>18589</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>12192</v>
+        <v>12916</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>26160</v>
+        <v>26144</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.02420407810928581</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.0158751661645837</v>
+        <v>0.01681743464083224</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.03406259182771287</v>
+        <v>0.03404209290221174</v>
       </c>
     </row>
     <row r="43">
@@ -3518,19 +3518,19 @@
         <v>62681</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>50775</v>
+        <v>51126</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>75289</v>
+        <v>75550</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.2043781441223744</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1655572728125256</v>
+        <v>0.1667023004931442</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2454893538946682</v>
+        <v>0.2463412587983513</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>177</v>
@@ -3539,19 +3539,19 @@
         <v>91503</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>79373</v>
+        <v>78108</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>104606</v>
+        <v>103868</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1983528496002864</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1720590934995594</v>
+        <v>0.1693153163918631</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.226757051142207</v>
+        <v>0.2251573122028372</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>263</v>
@@ -3560,19 +3560,19 @@
         <v>154184</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>138634</v>
+        <v>136831</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>171566</v>
+        <v>172319</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.2007589443077458</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1805125064729947</v>
+        <v>0.178165081599113</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2233926159388086</v>
+        <v>0.2243719032037253</v>
       </c>
     </row>
     <row r="44">
@@ -3589,19 +3589,19 @@
         <v>234232</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>220508</v>
+        <v>219801</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>246857</v>
+        <v>246309</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.7637445980666631</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.7189942066599935</v>
+        <v>0.7166915459824579</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.8049084357508636</v>
+        <v>0.8031232824099057</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>673</v>
@@ -3610,19 +3610,19 @@
         <v>356475</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>343521</v>
+        <v>343323</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>368578</v>
+        <v>369258</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.7727359351115277</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.7446569218843111</v>
+        <v>0.744226373548275</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.7989724450124392</v>
+        <v>0.8004457974874593</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>1028</v>
@@ -3631,19 +3631,19 @@
         <v>590707</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>571289</v>
+        <v>572123</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>607780</v>
+        <v>609906</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.7691454038275674</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.7438615677352551</v>
+        <v>0.7449482283923607</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.7913766262284755</v>
+        <v>0.7941440004937462</v>
       </c>
     </row>
     <row r="45">
@@ -3735,19 +3735,19 @@
         <v>11521</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>5939</v>
+        <v>6090</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>20979</v>
+        <v>21367</v>
       </c>
       <c r="G46" s="6" t="n">
-        <v>0.003292949649553444</v>
+        <v>0.003292949649553445</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.001697514206369765</v>
+        <v>0.001740801126165689</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.005996157949209599</v>
+        <v>0.006107286874466621</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>16</v>
@@ -3756,19 +3756,19 @@
         <v>12092</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>7129</v>
+        <v>6693</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>20480</v>
+        <v>20637</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.003249861468920855</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.001915961449019074</v>
+        <v>0.00179887053892356</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.005504159622722099</v>
+        <v>0.005546200895268315</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>26</v>
@@ -3777,19 +3777,19 @@
         <v>23613</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>15141</v>
+        <v>15323</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>35790</v>
+        <v>34802</v>
       </c>
       <c r="U46" s="6" t="n">
-        <v>0.003270742524095454</v>
+        <v>0.003270742524095455</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.002097179040487391</v>
+        <v>0.002122439414417694</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.004957367717569714</v>
+        <v>0.00482058687221198</v>
       </c>
     </row>
     <row r="47">
@@ -3806,19 +3806,19 @@
         <v>30570</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>20554</v>
+        <v>21071</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>43383</v>
+        <v>44823</v>
       </c>
       <c r="G47" s="6" t="n">
-        <v>0.008737558979721956</v>
+        <v>0.008737558979721958</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.005874884261637697</v>
+        <v>0.00602257734062926</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.01239989036488369</v>
+        <v>0.01281142177214141</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>24</v>
@@ -3827,19 +3827,19 @@
         <v>17314</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>11100</v>
+        <v>11236</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>26030</v>
+        <v>26540</v>
       </c>
       <c r="N47" s="6" t="n">
-        <v>0.004653167683111644</v>
+        <v>0.004653167683111643</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.002983113803898653</v>
+        <v>0.003019666208467621</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.006995717562892691</v>
+        <v>0.007132905134386712</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>56</v>
@@ -3848,19 +3848,19 @@
         <v>47884</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>36354</v>
+        <v>35959</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>64290</v>
+        <v>63567</v>
       </c>
       <c r="U47" s="6" t="n">
-        <v>0.006632513266217268</v>
+        <v>0.006632513266217269</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.005035540893612956</v>
+        <v>0.004980857745213257</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.008905030230388127</v>
+        <v>0.008804832397755079</v>
       </c>
     </row>
     <row r="48">
@@ -3877,19 +3877,19 @@
         <v>166341</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>141440</v>
+        <v>139542</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>196531</v>
+        <v>196884</v>
       </c>
       <c r="G48" s="6" t="n">
-        <v>0.04754404263478559</v>
+        <v>0.0475440426347856</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.04042682634380144</v>
+        <v>0.03988449496584346</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.05617312291229686</v>
+        <v>0.05627403669242233</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>144</v>
@@ -3898,19 +3898,19 @@
         <v>106602</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>89583</v>
+        <v>87307</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>129425</v>
+        <v>128506</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.02864980357631445</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.02407600792122866</v>
+        <v>0.02346421842882247</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.03478369306303113</v>
+        <v>0.03453674114720582</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>290</v>
@@ -3919,19 +3919,19 @@
         <v>272942</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>242189</v>
+        <v>241877</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>310524</v>
+        <v>315893</v>
       </c>
       <c r="U48" s="6" t="n">
-        <v>0.0378061810902818</v>
+        <v>0.03780618109028181</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.03354639383203766</v>
+        <v>0.03350325395041909</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.04301180782828258</v>
+        <v>0.0437554819018438</v>
       </c>
     </row>
     <row r="49">
@@ -3948,19 +3948,19 @@
         <v>780317</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>732902</v>
+        <v>729727</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>844935</v>
+        <v>838482</v>
       </c>
       <c r="G49" s="6" t="n">
-        <v>0.2230328908334913</v>
+        <v>0.2230328908334914</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.2094806674049766</v>
+        <v>0.2085729710639797</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.2415022743114302</v>
+        <v>0.2396577655306909</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>1140</v>
@@ -3969,19 +3969,19 @@
         <v>741464</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>702627</v>
+        <v>699418</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>785528</v>
+        <v>786916</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.1992727870783554</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.1888351578162381</v>
+        <v>0.1879725143653298</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.2111152459468211</v>
+        <v>0.2114882543490615</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>1883</v>
@@ -3990,19 +3990,19 @@
         <v>1521781</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>1452553</v>
+        <v>1453910</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>1589843</v>
+        <v>1586460</v>
       </c>
       <c r="U49" s="6" t="n">
-        <v>0.2107872216676392</v>
+        <v>0.2107872216676393</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.2011982270823419</v>
+        <v>0.2013860906373498</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.2202147336738184</v>
+        <v>0.219746153544795</v>
       </c>
     </row>
     <row r="50">
@@ -4019,19 +4019,19 @@
         <v>2509916</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>2443326</v>
+        <v>2444628</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>2561549</v>
+        <v>2566489</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.7173925579024476</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.6983596068566011</v>
+        <v>0.6987317248686057</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.7321507059327997</v>
+        <v>0.733562490790181</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>4017</v>
@@ -4040,19 +4040,19 @@
         <v>2843378</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>2792553</v>
+        <v>2798537</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>2885369</v>
+        <v>2887114</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.7641743801932976</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.7505148919038486</v>
+        <v>0.7521230620892305</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.7754596110904706</v>
+        <v>0.7759285814434238</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>6436</v>
@@ -4061,19 +4061,19 @@
         <v>5353294</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>5278258</v>
+        <v>5280129</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>5430965</v>
+        <v>5430300</v>
       </c>
       <c r="U50" s="6" t="n">
-        <v>0.7415033414517661</v>
+        <v>0.7415033414517663</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.7311098270004485</v>
+        <v>0.7313690463933448</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.7522618081878487</v>
+        <v>0.7521696921184544</v>
       </c>
     </row>
     <row r="51">
